--- a/table/table_2021-2022sockeye_fc_obs.xlsx
+++ b/table/table_2021-2022sockeye_fc_obs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DFO-MPO\Work\Sockeye_paper\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D8A28E-2722-46F2-93DD-D4E076D78F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F0ED15-7F7F-41ED-849C-4167B748A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-9360" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,33 +42,12 @@
     <t>Fraser River</t>
   </si>
   <si>
-    <t>Bristol Bay</t>
-  </si>
-  <si>
     <t>Forecast Return</t>
   </si>
   <si>
     <t>Estimated Return</t>
   </si>
   <si>
-    <t>Nass</t>
-  </si>
-  <si>
-    <t>Skeena</t>
-  </si>
-  <si>
-    <t>Somass</t>
-  </si>
-  <si>
-    <t>Baker Lake</t>
-  </si>
-  <si>
-    <t>Lake Washington</t>
-  </si>
-  <si>
-    <t>Columbia River</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
@@ -234,6 +213,118 @@
   </si>
   <si>
     <t>Summary of 2021 and 2022 sockeye runs</t>
+  </si>
+  <si>
+    <r>
+      <t>Bristol Bay</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nass</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Skeena</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Somass</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baker Lake</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lake Washington</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Columbia River</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -353,14 +444,8 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -373,9 +458,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,6 +466,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +758,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -682,266 +773,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>51000000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>65860000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E4" s="10">
+        <v>75270000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>79000000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>318000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>417000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E5" s="10">
+        <v>471000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>487000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1690000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1030000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.39</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2054000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4333344</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>350000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>365000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="10">
+        <v>400000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>910513</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1330000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2549000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="E8" s="11">
+        <v>9775000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6836789</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11400</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20800</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E9" s="10">
+        <v>27081</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25738</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>24800</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38600</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10165</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43289</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>51000000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>65860000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E4" s="13">
-        <v>75270000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>79000000</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>318000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>417000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="E5" s="13">
-        <v>471000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>487000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1690000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1030000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.39</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2054000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4333344</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>350000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>365000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="13">
-        <v>400000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>910513</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1330000</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2549000</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="E8" s="14">
-        <v>9775000</v>
-      </c>
-      <c r="F8" s="7">
-        <v>6836789</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>11400</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20800</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="E9" s="13">
-        <v>27081</v>
-      </c>
-      <c r="F9" s="2">
-        <v>25738</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>24800</v>
-      </c>
-      <c r="C10" s="2">
-        <v>38600</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E10" s="13">
-        <v>10165</v>
-      </c>
-      <c r="F10" s="2">
-        <v>43289</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>155600</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>151800</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>-0.02</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>198700</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>663253</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>2.34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
